--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2072.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2072.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.15877058840852</v>
+        <v>1.286965847015381</v>
       </c>
       <c r="B1">
-        <v>3.182866171755586</v>
+        <v>3.94300365447998</v>
       </c>
       <c r="C1">
-        <v>4.149756377726926</v>
+        <v>3.691750049591064</v>
       </c>
       <c r="D1">
-        <v>3.25387939342752</v>
+        <v>3.278568983078003</v>
       </c>
       <c r="E1">
-        <v>1.195750879658084</v>
+        <v>1.053878784179688</v>
       </c>
     </row>
   </sheetData>
